--- a/Program/output/DNDi_cleaning_20231121.xlsx
+++ b/Program/output/DNDi_cleaning_20231121.xlsx
@@ -581,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1252,6 +1252,154 @@
       <c r="G18" t="inlineStr">
         <is>
           <t>LBT0380</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>011001</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>D16</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>White blood Cell count (WBC), Out of normal range?</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12598</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>According to the result, the value is out of range, please review.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>LBT0280</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>011001</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>D16</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Absolute basophil count, Out of normal range?</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12638</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>According to the result, the value is out of range, please review.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>LBT0380</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>011001</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>D17</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>White blood Cell count (WBC), Out of normal range?</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12686</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>According to the result, the value is out of range, please review.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>LBT0280</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>011001</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>D18</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>White blood Cell count (WBC), Out of normal range?</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13050</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>According to the result, the value is out of range, please review.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>LBT0280</t>
         </is>
       </c>
     </row>
@@ -1712,7 +1860,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1900,6 +2048,43 @@
         </is>
       </c>
       <c r="G5" t="inlineStr">
+        <is>
+          <t>URM0010</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>011001</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>D16</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Was the urine microscopic examination performed?</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12259</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>If Urine Sample Collected is checked as "Yes", not all laboratory tests can be "not done"</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>URM0010</t>
         </is>
@@ -4129,7 +4314,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -4201,7 +4386,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -4236,7 +4421,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -4271,7 +4456,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>

--- a/Program/output/DNDi_cleaning_20231121.xlsx
+++ b/Program/output/DNDi_cleaning_20231121.xlsx
@@ -3740,7 +3740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3782,43 +3782,6 @@
       <c r="G1" t="inlineStr">
         <is>
           <t>Check Number</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>S003</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>unscheduled</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>End of study/Early withdrawal date</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20449</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>End of study/Early withdrawal date can not be before the informed consent date</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>08-NOV-2023</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>ES0030</t>
         </is>
       </c>
     </row>
@@ -4001,7 +3964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4043,154 +4006,6 @@
       <c r="G1" t="inlineStr">
         <is>
           <t>Check Number</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>011001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Screening Visit</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Date of confirmed diagnosis of CL</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>The year of diagnosis of CL must be equal or after the year of birth in DEMOGRAPHIC</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>23-OCT-2023 - 25-OCT-2023</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>CL0010</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>S002</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Screening Visit</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Date of confirmed diagnosis of CL</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>18027</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>SEC - In order to comply with the correct date format, the date will be changed to 02-NOV-2023</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2-NOV-2023</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>GE0020</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>S002</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Screening Visit</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Date of confirmed diagnosis of CL</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>18027</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>The year of diagnosis of CL must be equal or after the year of birth in DEMOGRAPHIC</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2-NOV-2023 - 08-NOV-2023</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>CL0010</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>S003</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Screening Visit</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Date of confirmed diagnosis of CL</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>19264</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>The year of diagnosis of CL must be equal or after the year of birth in DEMOGRAPHIC</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>11-OCT-2023 - 08-NOV-2023</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>CL0010</t>
         </is>
       </c>
     </row>
@@ -4205,7 +4020,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4330,135 +4145,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Screening Visit</t>
+          <t>D-1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Is the subject eligible for the study?</t>
+          <t>Is the participant eligible to randomization?</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>629</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The Subject can not be eligible because he/she had a positive COVID-19 test result, please review</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>The participant has more than 4 lesions, or lesions over 4cm long in diameter or lesions with mucosal involvement in the Lesion Measurement form, he/she should not be eligible for randomization</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>10</v>
       </c>
       <c r="G4" t="inlineStr">
-        <is>
-          <t>IE0270</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>011001</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Screening Visit</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Is the subject eligible for the study?</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>The participant has more than 4 lesions, or lesions over 4cm long in diameter or lesions with mucosal involvement in the Lesion Measurement form, he/she should not be eligible for randomization</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>IE0447</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>011001</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>D-1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Is the participant eligible to randomization?</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>629</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>The participant has more than 4 lesions, or lesions over 4cm long in diameter or lesions with mucosal involvement in the Lesion Measurement form, he/she should not be eligible for randomization</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>IE0446</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>011001</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>D-1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Is the participant eligible to randomization?</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>629</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>The participant has more than 4 lesions, or lesions over 4cm long in diameter or lesions with mucosal involvement in the Lesion Measurement form, he/she should not be eligible for randomization</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-      <c r="G7" t="inlineStr">
         <is>
           <t>IE0446</t>
         </is>
